--- a/Sets-user.xlsx
+++ b/Sets-user.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95a19d6e4dcee85b/Dokumenty/MASTER_file/TIMES-model-new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Pracedyplomowe796/Shared Documents/General/2025_2026/Alicja Ossera/H2-model-V6_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{77D4F5EA-8CD2-4999-A662-41F3FF7A7B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FA0FB8D-2260-4210-95E5-1F8FB13D594F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{77D4F5EA-8CD2-4999-A662-41F3FF7A7B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A76FC305-18CD-4FCF-B366-F819E696605F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F05779F-CEA9-4DED-939C-B16B1052B5EF}"/>
   </bookViews>
   <sheets>
     <sheet name="USER SETS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2844,7 +2847,7 @@
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2875,6 +2878,8 @@
     <xf numFmtId="0" fontId="2" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="43" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1240">
     <cellStyle name="20 % - Akzent1 2" xfId="2" xr:uid="{256C3289-4F74-4E9C-9ADE-55396252B182}"/>
@@ -4136,6 +4141,37 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="SEC_Comm"/>
+      <sheetName val="SEC_Processes"/>
+      <sheetName val="MIN_IMP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="12">
+          <cell r="D12" t="str">
+            <v>PRI_WIND_ON</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14" t="str">
+            <v>PRI_SOL</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office 2013–2022">
   <a:themeElements>
@@ -4435,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F68A68F-1249-4F39-8556-9CFA5F4FCFA0}">
   <dimension ref="B2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4538,7 +4574,10 @@
       <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="14" t="str">
+        <f>[1]MIN_IMP!$D$12</f>
+        <v>PRI_WIND_ON</v>
+      </c>
       <c r="E14" s="11" t="s">
         <v>24</v>
       </c>
@@ -4551,7 +4590,10 @@
       <c r="C15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="15" t="str">
+        <f>[1]MIN_IMP!$D$14</f>
+        <v>PRI_SOL</v>
+      </c>
       <c r="E15" s="12" t="s">
         <v>27</v>
       </c>
@@ -4582,28 +4624,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e5d4a3c7149b57b28db1d4e0c8b1f8ef">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="94b4aa4579c01afc24555846f42c1406" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -4659,7 +4681,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -4718,7 +4740,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4737,7 +4759,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -4754,8 +4776,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -4844,10 +4866,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A051FD86-99F0-4481-8B4B-E3C5AC171823}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C2F2262-66A8-44F3-A35F-919BFBD2342C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4855,14 +4908,24 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74C87D93-437D-4EB7-BE93-3ECEED6671A0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3545EF48-D2A2-4263-9389-E1790E286DCF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A051FD86-99F0-4481-8B4B-E3C5AC171823}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Sets-user.xlsx
+++ b/Sets-user.xlsx
@@ -4624,8 +4624,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="d01415ea1199deeb41b51c70588c36fd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fa59cd927a012587991ffb3f8178b460" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -4681,7 +4681,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tagi obrazów" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -4740,7 +4740,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Udostępnianie" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="21" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4759,7 +4759,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Udostępnione dla — szczegóły" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="22" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -4776,8 +4776,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -4887,22 +4887,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C2F2262-66A8-44F3-A35F-919BFBD2342C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
-    <ds:schemaRef ds:uri="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B95D638-8C97-4D5A-BDB8-30A5DFE69F92}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
